--- a/laboratornie_raboty/3semlab342 Закон Кюри-Вейсса/lab342.xlsx
+++ b/laboratornie_raboty/3semlab342 Закон Кюри-Вейсса/lab342.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>$T, ^\circ C$</t>
   </si>
@@ -45,19 +45,34 @@
     <t>$\sigma_{\tau}, мкс$</t>
   </si>
   <si>
-    <t>$\sigma_{f(\tau)}, мкс^{-2}$</t>
-  </si>
-  <si>
     <t>$\frac{1}{(\tau^2-\tau_0^2)}=f(\tau), мкс^{-2}$</t>
   </si>
   <si>
-    <t>$\sigma_{\varepsilon}, мВ$</t>
+    <t>$\sigma_{\tau^2 - \tau_0^2}, мкс^2$</t>
+  </si>
+  <si>
+    <t>$\sigma_{\frac{1}{\tau^2-\tau_0^2}}, мкс^{-2}}</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>(0,035+-0,002)*T + (-0,631+-0,036)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,9 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,16 +404,16 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,466 +426,568 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>12.19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>7.9699859999999996</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>A2+B2*$B$18</f>
         <v>12.067599999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <f>1/(C2^2-$B$19^2)</f>
         <v>6.3356772846467013E-2</v>
       </c>
-      <c r="G2" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="3">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="2">
         <f>2*C2/(C2^2-$B$19^2)^2*G2</f>
-        <v>6.3984333414111338E-6</v>
-      </c>
-      <c r="I2" s="1">
-        <f>0.0001*12</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+        <v>6.3984333414111329E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <f>2*C2*G2</f>
+        <v>0.15939971999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>14.14</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>7.9347669999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D15" si="0">A3+B3*$B$18</f>
         <v>13.943200000000001</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E16" si="1">1/(C3^2-$B$19^2)</f>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F16" si="1">1/(C3^2-$B$19^2)</f>
         <v>6.568799133711134E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="2">2*C3/(C3^2-$B$19^2)^2*G3</f>
-        <v>6.8475645958615112E-6</v>
-      </c>
-      <c r="I3" s="1">
-        <f>0.0002*12</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G16" si="2">0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="2">
+        <f>2*C3/(C3^2-$B$19^2)^2*G3</f>
+        <v>6.8475645958615105E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <f>2*C3*G3</f>
+        <v>0.15869533999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>16.11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>-1.9400000000000001E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>7.8852380000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>15.644399999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>6.9252395640671038E-2</v>
       </c>
-      <c r="G4" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5633535987786688E-6</v>
-      </c>
-      <c r="I4" s="1">
-        <f>0.0004*12</f>
-        <v>4.8000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <f>2*C4/(C4^2-$B$19^2)^2*G4</f>
+        <v>7.5633535987786689E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <f>2*C4*G4</f>
+        <v>0.15770476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>17.059999999999999</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>-2.0799999999999999E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>7.8459339999999997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>16.5608</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>7.235033698312901E-2</v>
       </c>
-      <c r="G5" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2140201273186397E-6</v>
-      </c>
-      <c r="I5" s="1">
-        <f>0.0008*12</f>
-        <v>9.6000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <f>2*C5/(C5^2-$B$19^2)^2*G5</f>
+        <v>8.2140201273186401E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>2*C5*G5</f>
+        <v>0.15691868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>18.11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>-9.5999999999999992E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>7.765657</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>17.8796</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>7.9564723664458187E-2</v>
       </c>
-      <c r="G6" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>9.8321686096939627E-6</v>
-      </c>
-      <c r="I6" s="1">
-        <f>0.0006*12</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="2">
+        <f>2*C6/(C6^2-$B$19^2)^2*G6</f>
+        <v>9.8321686096939612E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <f>2*C6*G6</f>
+        <v>0.15531314000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>19.05</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>-2.0899999999999998E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>7.7182209999999998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>18.548400000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>8.450306157726617E-2</v>
       </c>
-      <c r="G7" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1022804205151244E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="2">
+        <f>2*C7/(C7^2-$B$19^2)^2*G7</f>
+        <v>1.1022804205151244E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*C7*G7</f>
+        <v>0.15436442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>20.07</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>-2.12E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>7.6269720000000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>19.561199999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>9.5843669784777125E-2</v>
       </c>
-      <c r="G8" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4012286744629948E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="2">
+        <f>2*C8/(C8^2-$B$19^2)^2*G8</f>
+        <v>1.4012286744629948E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f>2*C8*G8</f>
+        <v>0.15253944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>22.08</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7.4391759999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>21.607199999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>0.13150463135044496</v>
       </c>
-      <c r="G9" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5729830519587873E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <f>2*C9/(C9^2-$B$19^2)^2*G9</f>
+        <v>2.5729830519587871E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <f>2*C9*G9</f>
+        <v>0.14878352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>24.08</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>-2.0799999999999999E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>7.2391300000000003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>23.5808</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0.21422641104876436</v>
       </c>
-      <c r="G10" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>6.6445013742124644E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2">
+        <f>2*C10/(C10^2-$B$19^2)^2*G10</f>
+        <v>6.6445013742124645E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <f>2*C10*G10</f>
+        <v>0.14478260000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>26.08</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>-1.9E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>7.152228</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>25.623999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>0.29262690884751807</v>
       </c>
-      <c r="G11" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2248978308203226E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="2">
+        <f>2*C11/(C11^2-$B$19^2)^2*G11</f>
+        <v>1.2248978308203224E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f>2*C11*G11</f>
+        <v>0.14304456000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>28.07</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>-1.8700000000000001E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>7.1092490000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>27.621200000000002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>0.35658547532979473</v>
       </c>
-      <c r="G12" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>1.807927537185791E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="2">
+        <f>2*C12/(C12^2-$B$19^2)^2*G12</f>
+        <v>1.8079275371857911E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>2*C12*G12</f>
+        <v>0.14218498000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>30.05</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>-2.06E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>7.0828480000000003</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>29.555600000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0.41157494422516228</v>
       </c>
-      <c r="G13" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3995829834015981E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="2">
+        <f>2*C13/(C13^2-$B$19^2)^2*G13</f>
+        <v>2.3995829834015981E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*C13*G13</f>
+        <v>0.14165696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>32.06</v>
       </c>
-      <c r="B14" s="1">
-        <v>-0.20499999999999999</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="2">
+        <v>-2.0500000000000001E-2</v>
+      </c>
+      <c r="C14" s="2">
         <v>7.0629359999999997</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>27.14</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>31.568000000000001</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>0.4655449485069163</v>
       </c>
-      <c r="G14" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0615298898997392E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="2">
+        <f>2*C14/(C14^2-$B$19^2)^2*G14</f>
+        <v>3.061529889899739E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*C14*G14</f>
+        <v>0.14125872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>34.07</v>
       </c>
-      <c r="B15" s="1">
-        <v>-0.188</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="2">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="C15" s="2">
         <v>7.0483969999999996</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>29.558</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>33.6188</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>0.51470628324619994</v>
       </c>
-      <c r="G15" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7345587262639646E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="2">
+        <f>2*C15/(C15^2-$B$19^2)^2*G15</f>
+        <v>3.7345587262639646E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*C15*G15</f>
+        <v>0.14096793999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>36.06</v>
       </c>
-      <c r="B16" s="1">
-        <v>-0.20799999999999999</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="C16" s="2">
         <v>7.0381970000000003</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <f>A16+B16*$B$18</f>
-        <v>31.068000000000001</v>
-      </c>
-      <c r="E16" s="1">
+        <v>35.5608</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>0.55581111416820328</v>
       </c>
-      <c r="G16" s="1">
-        <f>0.0001</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3485640172945787E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="2">
+        <f>2*C16/(C16^2-$B$19^2)^2*G16</f>
+        <v>4.3485640172945789E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*C16*G16</f>
+        <v>0.14076394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.63005999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <f>-G18/F18</f>
+        <v>5.7613560613274932E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>6.9092000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5340000000000003E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19/F19</f>
+        <v>4.584040747028862E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1">
+        <f>-F18/F19</f>
+        <v>17.828522920203731</v>
+      </c>
+      <c r="G21" s="1">
+        <f>SQRT((1/F18^2)^2*G18^2+(F18/F19^2)^2*G19^2)</f>
+        <v>0.82236638829372644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
